--- a/products/pawapro/data/変化球調査.xlsx
+++ b/products/pawapro/data/変化球調査.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subaru\Desktop\パワプロデータ＆調査\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\stdwool\products\pawapro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="投手能力" sheetId="3" r:id="rId1"/>
-    <sheet name="センス○" sheetId="4" r:id="rId2"/>
-    <sheet name="変化球経験点" sheetId="1" r:id="rId3"/>
-    <sheet name="スライダーコツLv5" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="センス○" sheetId="4" r:id="rId3"/>
+    <sheet name="変化球経験点" sheetId="1" r:id="rId4"/>
+    <sheet name="スライダーコツLv5" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="446">
   <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
@@ -1786,6 +1787,32 @@
   </si>
   <si>
     <t>⑧7</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1955,18 +1982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2011,6 +2026,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2295,7 +2322,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3629,7 +3658,7 @@
         <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
@@ -3637,7 +3666,7 @@
         <v>143</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
@@ -5952,6 +5981,1121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:R59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>442</v>
+      </c>
+      <c r="J3" t="s">
+        <v>443</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <f>O3-12</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J4" t="s">
+        <v>441</v>
+      </c>
+      <c r="M4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>27</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R10" si="0">O4-12</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>444</v>
+      </c>
+      <c r="M5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>28</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>130</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>31</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>156</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>32</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>182</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>33</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>135</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>162</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>189</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>112</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>140</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>168</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>196</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>87</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>116</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>145</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>174</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>203</v>
+      </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>150</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>180</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>210</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>93</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>124</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>155</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>186</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>217</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>64</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>128</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>160</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <v>192</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>346</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>224</v>
+      </c>
+      <c r="D52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>347</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B55">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>99</v>
+      </c>
+      <c r="D55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>352</v>
+      </c>
+      <c r="B56">
+        <v>33</v>
+      </c>
+      <c r="C56">
+        <v>132</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57">
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>165</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58">
+        <v>198</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>231</v>
+      </c>
+      <c r="D59">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N58"/>
@@ -5966,56 +7110,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="9">
         <v>22</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>12</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <f>26-E3</f>
         <v>14</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <f>FLOOR(E3*0.9,1)+FLOOR(F3*0.9,1)</f>
         <v>22</v>
       </c>
@@ -6037,27 +7181,27 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="12">
         <v>11</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>46</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>5</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <f>E3*2</f>
         <v>24</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="12">
         <f>F3*2</f>
         <v>28</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <f t="shared" ref="G4:G8" si="0">FLOOR(E4*0.9,1)+FLOOR(F4*0.9,1)</f>
         <v>46</v>
       </c>
@@ -6075,27 +7219,27 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>17</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>69</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>9</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <f>E3*3</f>
         <v>36</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="12">
         <f>F3*3</f>
         <v>42</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -6113,27 +7257,27 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>22</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>93</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>11</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <f>E3*4</f>
         <v>48</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <f>F3*4</f>
         <v>56</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
@@ -6151,27 +7295,27 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>29</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="12">
         <v>117</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>15</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <f>E3*5</f>
         <v>60</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <f>F3*5</f>
         <v>70</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
@@ -6193,53 +7337,53 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>34</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>139</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
         <v>17</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <f>E3*6</f>
         <v>72</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <f>F3*6</f>
         <v>84</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>40</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <v>163</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <v>20</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <f>E3*7</f>
         <v>84</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <f>F3*7</f>
         <v>98</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="16">
         <f>FLOOR(E9*0.9,1)+FLOOR(F9*0.9,1)</f>
         <v>163</v>
       </c>
@@ -6251,27 +7395,27 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>23</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <f>E3</f>
         <v>12</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <f>27-E10</f>
         <v>15</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <f>FLOOR(E10*0.9,1)+FLOOR(F10*0.9,1)</f>
         <v>23</v>
       </c>
@@ -6292,27 +7436,27 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>12</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="12">
         <v>48</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <f>E10*2</f>
         <v>24</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <f>F10*2</f>
         <v>30</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <f>FLOOR(E11*0.9,1)+FLOOR(F11*0.9,1)</f>
         <v>48</v>
       </c>
@@ -6333,27 +7477,27 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>18</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="12">
         <v>72</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <v>9</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <f>E10*3</f>
         <v>36</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <f>F10*3</f>
         <v>45</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <f t="shared" ref="G12:G16" si="1">FLOOR(E12*0.9,1)+FLOOR(F12*0.9,1)</f>
         <v>72</v>
       </c>
@@ -6374,27 +7518,27 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>23</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="12">
         <v>97</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
         <v>12</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <f>E10*4</f>
         <v>48</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <f>F10*4</f>
         <v>60</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
@@ -6415,27 +7559,27 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>30</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <v>121</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>16</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <f>E10*5</f>
         <v>60</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="12">
         <f>F10*5</f>
         <v>75</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
@@ -6456,27 +7600,27 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>36</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="12">
         <v>145</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
         <v>18</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <f>E10*6</f>
         <v>72</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>F10*6</f>
         <v>90</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
@@ -6497,27 +7641,27 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>42</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <v>169</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="16">
         <v>21</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="14">
         <f>E10*7</f>
         <v>84</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <f>F10*7</f>
         <v>105</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="16">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
@@ -6538,15 +7682,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
       <c r="I17" t="s">
         <v>388</v>
       </c>
@@ -6564,15 +7708,15 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
       <c r="I18" t="s">
         <v>390</v>
       </c>
@@ -6590,15 +7734,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
       <c r="I19" t="s">
         <v>392</v>
       </c>
@@ -6616,26 +7760,26 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
       <c r="I21" t="s">
         <v>395</v>
       </c>
@@ -6649,15 +7793,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
       <c r="I22" t="s">
         <v>397</v>
       </c>
@@ -6671,15 +7815,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
       <c r="I23" t="s">
         <v>399</v>
       </c>
@@ -6693,27 +7837,27 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>7</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>25</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>3</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="8">
         <f>E3</f>
         <v>12</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <f>29-E24</f>
         <v>17</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="10">
         <f t="shared" ref="G24:G37" si="2">FLOOR(E24*0.9,1)+FLOOR(F24*0.9,1)</f>
         <v>25</v>
       </c>
@@ -6730,27 +7874,27 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="12">
         <v>13</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="12">
         <v>51</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="13">
         <v>6</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <f>E24*2</f>
         <v>24</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="12">
         <f>F24*2</f>
         <v>34</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="13">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
@@ -6767,27 +7911,27 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="12">
         <v>19</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="12">
         <v>77</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="13">
         <v>10</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <f>E24*3</f>
         <v>36</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="12">
         <f>F24*3</f>
         <v>51</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
@@ -6804,27 +7948,27 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="12">
         <v>25</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="12">
         <v>104</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="13">
         <v>13</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <f>E24*4</f>
         <v>48</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="12">
         <f>F24*4</f>
         <v>68</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="13">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
@@ -6841,27 +7985,27 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>32</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="12">
         <v>130</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="13">
         <v>16</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="11">
         <f>E24*5</f>
         <v>60</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="12">
         <f>F24*5</f>
         <v>85</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="13">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
@@ -6878,53 +8022,53 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="12">
         <v>39</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="12">
         <v>155</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="13">
         <v>19</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <f>E24*6</f>
         <v>72</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="12">
         <f>F24*6</f>
         <v>102</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="13">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="15">
         <v>45</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="15">
         <v>182</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="16">
         <v>22</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="14">
         <f>E24*7</f>
         <v>84</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="15">
         <f>F24*7</f>
         <v>119</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="16">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
@@ -6941,27 +8085,27 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="9">
         <v>7</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="9">
         <v>26</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="10">
         <v>3</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="8">
         <f>E3</f>
         <v>12</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="9">
         <f>30-E31</f>
         <v>18</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="10">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6978,27 +8122,27 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="12">
         <v>13</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="12">
         <v>53</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="13">
         <v>6</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="11">
         <f>E31*2</f>
         <v>24</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="12">
         <f>F31*2</f>
         <v>36</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="13">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
@@ -7011,27 +8155,27 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <v>20</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="12">
         <v>80</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="13">
         <v>10</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <f>E31*3</f>
         <v>36</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="12">
         <f>F31*3</f>
         <v>54</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="13">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
@@ -7044,53 +8188,53 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="12">
         <v>26</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="12">
         <v>107</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="13">
         <v>13</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="11">
         <f>E31*4</f>
         <v>48</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="12">
         <f>F31*4</f>
         <v>72</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="13">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="12">
         <v>33</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="12">
         <v>135</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="13">
         <v>17</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="11">
         <f>E31*5</f>
         <v>60</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="12">
         <f>F31*5</f>
         <v>90</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="13">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
@@ -7103,27 +8247,27 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>40</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="12">
         <v>161</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="13">
         <v>20</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="11">
         <f>E31*6</f>
         <v>72</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="12">
         <f>F31*6</f>
         <v>108</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="13">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
@@ -7136,27 +8280,27 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="15">
         <v>46</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="15">
         <v>188</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="16">
         <v>23</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="14">
         <f>E31*7</f>
         <v>84</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="15">
         <f>F31*7</f>
         <v>126</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="16">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
@@ -7169,305 +8313,305 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="9">
         <v>7</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>27</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="10">
         <v>3</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="8">
         <f>E3</f>
         <v>12</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="9">
         <f>31-E38</f>
         <v>19</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="10">
         <f>FLOOR(E38*0.9,1)+FLOOR(F38*0.9,1)</f>
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>14</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="12">
         <v>55</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="13">
         <v>6</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <f>E38*2</f>
         <v>24</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="12">
         <f>F38*2</f>
         <v>38</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="13">
         <f>FLOOR(E39*0.9,1)+FLOOR(F39*0.9,1)</f>
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <v>21</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="12">
         <v>83</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="13">
         <v>11</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="11">
         <f>E38*3</f>
         <v>36</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="12">
         <f>F38*3</f>
         <v>57</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="13">
         <f t="shared" ref="G40:G44" si="3">FLOOR(E40*0.9,1)+FLOOR(F40*0.9,1)</f>
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="12">
         <v>27</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="12">
         <v>111</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="13">
         <v>14</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="11">
         <f>E38*4</f>
         <v>48</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="12">
         <f>F38*4</f>
         <v>76</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="13">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <v>34</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="12">
         <v>139</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="13">
         <v>17</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="11">
         <f>E38*5</f>
         <v>60</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="12">
         <f>F38*5</f>
         <v>95</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="13">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <v>42</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="12">
         <v>166</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="13">
         <v>21</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <f>E38*6</f>
         <v>72</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="12">
         <f>F38*6</f>
         <v>114</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="13">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="15">
         <v>48</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="15">
         <v>194</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="16">
         <v>24</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="14">
         <f>E38*7</f>
         <v>84</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="15">
         <f>F38*7</f>
         <v>133</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="16">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="9">
         <v>7</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="9">
         <v>28</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="12">
         <v>14</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="12">
         <v>57</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="13">
         <v>6</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="12">
         <v>21</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="12">
         <v>86</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="13">
         <v>11</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="12">
         <v>28</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="12">
         <v>115</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="13">
         <v>14</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="12">
         <v>35</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="12">
         <v>144</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="13">
         <v>18</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="12">
         <v>43</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="12">
         <v>172</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="13">
         <v>21</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="15">
         <v>49</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="15">
         <v>201</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="16">
         <v>25</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
@@ -7515,7 +8659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -7722,16 +8866,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -7972,7 +9116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
@@ -8182,16 +9326,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
